--- a/DateBase/orders/dang顶顶顶_2024-10-13.xlsx
+++ b/DateBase/orders/dang顶顶顶_2024-10-13.xlsx
@@ -1276,6 +1276,9 @@
       <c r="G2" t="str">
         <v>0202010501020101010101010501020101010201010101010151010301010101210111111111020101151010165301010101010101020655510511111181515101010210201010534102010510207</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
